--- a/biology/Botanique/Montepulciano_d'Abruzzo/Montepulciano_d'Abruzzo.xlsx
+++ b/biology/Botanique/Montepulciano_d'Abruzzo/Montepulciano_d'Abruzzo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Montepulciano_d%27Abruzzo</t>
+          <t>Montepulciano_d'Abruzzo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le  Montepulciano d'Abruzzo est un vignoble italien de la région Abruzzes doté d'une appellation DOC depuis le 24 mai 1968. 
 Seuls ont droit à la DOC les vins récoltés à l'intérieur de l'aire de production définie par le décret. Les vignobles autorisés se situent en provinces de Teramo, de Pescara, de Chieti et de L'Aquila.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Montepulciano_d%27Abruzzo</t>
+          <t>Montepulciano_d'Abruzzo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">1) en province de Chieti:
 Altino, Archi, Ari, Arielli, Atessa, Bomba, Bucchianico, Canosa Sannita, Casacanditella, Casalanguida, Casalincontrada, Carpineto Sinello, Casalbordino, Casoli, Castel Frentano, Celenza sul Trigno, Chieti, Crecchio, Cupello, Fara Filiorum Petri, Filetto, Fossacesia, Francavilla al Mare, Fresagrandinaria, Frisa, Furci, Gissi, Giuliano Teatino, Guardiagrele, Lanciano, Lentella, Miglianico, Monteodorisio, Mozzagrogna, Orsogna, Ortona, Paglieta, Palmoli, Perano, Poggiofiorito, Pollutri, Ripa Teatina, Roccamontepiano, Rocca San Giovanni, San Buono, Sant'Eusanio del Sangro, San Giovanni Teatino, Santa Maria Imbaro, San Martino sulla Marrucina, San Salvo, San Vito Chietino, Scerni, Tollo, Torino di Sangro, Torrevecchia Teatina, Treglio, Vasto, Villalfonsina, Villamagna, Vacri;
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Montepulciano_d%27Abruzzo</t>
+          <t>Montepulciano_d'Abruzzo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Les appellations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les appellations de la zone de production sont:
 Montepulciano d'Abruzzo cerasuolo
